--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1494872.371452948</v>
+        <v>-1495584.97592699</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.09968925551635</v>
+        <v>59.45964974607929</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
         <v>62.66716559384197</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.53078872718769</v>
       </c>
       <c r="S11" t="n">
         <v>49.17968824550869</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012116</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>9.188502199810671</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1491,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851665</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134804</v>
+        <v>55.35299812624241</v>
       </c>
       <c r="U12" t="n">
         <v>58.89840834437492</v>
@@ -1509,13 +1509,13 @@
         <v>62.31927159084699</v>
       </c>
       <c r="W12" t="n">
-        <v>105.445690163201</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X12" t="n">
         <v>38.98326511491535</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.5623770505816</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="13">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.08396265066401</v>
       </c>
       <c r="E14" t="n">
-        <v>166.6038500687486</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F14" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384197</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.5307887271877</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065503</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673099</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="15">
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D15" t="n">
-        <v>18.57477206886887</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>93.32026297057462</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>188.5623770505815</v>
+        <v>13.25780256851665</v>
       </c>
       <c r="T15" t="n">
         <v>36.64054962134804</v>
@@ -1743,10 +1743,10 @@
         <v>58.89840834437492</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084699</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W15" t="n">
-        <v>88.37493425245634</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="X15" t="n">
         <v>38.98326511491535</v>
@@ -1859,7 +1859,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>135.1258155205628</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R18" t="n">
         <v>134.7086383504341</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>53.27756889950529</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="19">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D20" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E20" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F20" t="n">
         <v>105.7746578479523</v>
@@ -2096,7 +2096,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194019</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X20" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>47.58488881655582</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>62.25241900846392</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D23" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E23" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F23" t="n">
         <v>105.7746578479523</v>
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194013</v>
+        <v>49.5933655819402</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W23" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X23" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>183.9186179904441</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>118.5929332313449</v>
       </c>
     </row>
     <row r="25">
@@ -2558,22 +2558,22 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E26" t="n">
-        <v>158.0119353936034</v>
+        <v>158.0119353936035</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G26" t="n">
         <v>205.3708602775721</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5509807059686</v>
+        <v>133.5509807059687</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036453</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203124</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177523</v>
+        <v>8.99743381717759</v>
       </c>
       <c r="U26" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325356</v>
       </c>
       <c r="V26" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X26" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>52.45818464705465</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>36.82167581012619</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9701989459033</v>
+        <v>1.503222277870606</v>
       </c>
       <c r="U27" t="n">
-        <v>23.76108100089743</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V27" t="n">
-        <v>27.1819442473695</v>
+        <v>27.18194424736956</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.84593777143786</v>
+        <v>148.024833960635</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992929</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064998</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257514</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913225</v>
+        <v>75.1895720791323</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641722</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130264</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209841</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135731</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D29" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E29" t="n">
-        <v>158.0119353936034</v>
+        <v>158.0119353936035</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G29" t="n">
         <v>205.3708602775721</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5509807059686</v>
+        <v>133.5509807059687</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036448</v>
+        <v>27.52983825036453</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203124</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177534</v>
+        <v>8.99743381717759</v>
       </c>
       <c r="U29" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325355</v>
       </c>
       <c r="V29" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X29" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>100.1300731737074</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>72.13556525279685</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870549</v>
+        <v>1.503222277870606</v>
       </c>
       <c r="U30" t="n">
-        <v>23.76108100089743</v>
+        <v>23.76108100089748</v>
       </c>
       <c r="V30" t="n">
-        <v>27.1819442473695</v>
+        <v>27.18194424736956</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897885</v>
+        <v>53.2376069089789</v>
       </c>
       <c r="X30" t="n">
-        <v>3.84593777143786</v>
+        <v>3.845937771437917</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992929</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064998</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257514</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913225</v>
+        <v>75.1895720791323</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641722</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130264</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209841</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135731</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160.6202637098006</v>
+        <v>160.6202637098007</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7385207131461</v>
+        <v>136.7385207131462</v>
       </c>
       <c r="D32" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E32" t="n">
-        <v>158.0119353936034</v>
+        <v>158.0119353936035</v>
       </c>
       <c r="F32" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G32" t="n">
         <v>205.3708602775721</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5509807059686</v>
+        <v>133.5509807059687</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203128</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177523</v>
+        <v>8.997433817177608</v>
       </c>
       <c r="U32" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325358</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411194</v>
       </c>
       <c r="W32" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X32" t="n">
-        <v>146.3157376266734</v>
+        <v>146.3157376266735</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>133.747708136011</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870549</v>
+        <v>1.503222277870634</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089743</v>
+        <v>23.76108100089751</v>
       </c>
       <c r="V33" t="n">
-        <v>27.1819442473695</v>
+        <v>27.18194424736959</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897885</v>
+        <v>256.7211942258991</v>
       </c>
       <c r="X33" t="n">
-        <v>3.84593777143786</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992872</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096065001</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257516</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913233</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641724</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130267</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209784</v>
+        <v>8.45247874020987</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135759</v>
       </c>
     </row>
     <row r="35">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>46.65700047224057</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
         <v>52.45818464705465</v>
@@ -3387,19 +3387,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668513</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>180.9936077906772</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I39" t="n">
-        <v>9.110766887452268</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>80.52184940108103</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.153699692889013</v>
+        <v>9.153699692889006</v>
       </c>
       <c r="V41" t="n">
         <v>79.88296869075478</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705465</v>
+        <v>42.46285817502527</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.70776865861436</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>68.08792219405619</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>164.5212146024672</v>
       </c>
       <c r="U45" t="n">
-        <v>188.0606559050875</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.70776865861436</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>308.3468405680263</v>
+        <v>308.8376400522964</v>
       </c>
       <c r="C11" t="n">
-        <v>308.3468405680263</v>
+        <v>308.8376400522964</v>
       </c>
       <c r="D11" t="n">
-        <v>308.3468405680263</v>
+        <v>308.8376400522964</v>
       </c>
       <c r="E11" t="n">
-        <v>308.3468405680263</v>
+        <v>308.8376400522964</v>
       </c>
       <c r="F11" t="n">
-        <v>117.8797930421863</v>
+        <v>308.8376400522964</v>
       </c>
       <c r="G11" t="n">
-        <v>78.38515743055358</v>
+        <v>248.7773877835295</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055358</v>
+        <v>78.38515743055359</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404653</v>
@@ -5042,49 +5042,49 @@
         <v>115.6457740567087</v>
       </c>
       <c r="K11" t="n">
-        <v>161.714690083166</v>
+        <v>285.5745218649279</v>
       </c>
       <c r="L11" t="n">
-        <v>208.48802831346</v>
+        <v>332.3478600952218</v>
       </c>
       <c r="M11" t="n">
-        <v>395.1647815935357</v>
+        <v>413.2681708183736</v>
       </c>
       <c r="N11" t="n">
-        <v>470.5520315267738</v>
+        <v>488.6554207516117</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602034</v>
+        <v>522.9321043850413</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381373</v>
+        <v>666.4818518381376</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R11" t="n">
-        <v>754.2495082023263</v>
+        <v>737.5517418112279</v>
       </c>
       <c r="S11" t="n">
-        <v>704.5730554290852</v>
+        <v>687.8752890379868</v>
       </c>
       <c r="T11" t="n">
-        <v>659.9924886001406</v>
+        <v>643.2947222090422</v>
       </c>
       <c r="U11" t="n">
-        <v>659.9924886001406</v>
+        <v>643.2947222090422</v>
       </c>
       <c r="V11" t="n">
-        <v>659.9924886001406</v>
+        <v>499.3046875781365</v>
       </c>
       <c r="W11" t="n">
-        <v>498.8138880938662</v>
+        <v>499.3046875781365</v>
       </c>
       <c r="X11" t="n">
-        <v>498.8138880938662</v>
+        <v>499.3046875781365</v>
       </c>
       <c r="Y11" t="n">
-        <v>498.8138880938662</v>
+        <v>499.3046875781365</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.1344870564141</v>
+        <v>204.3581973239866</v>
       </c>
       <c r="C12" t="n">
-        <v>228.85317170307</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="D12" t="n">
-        <v>68.07305546410173</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="E12" t="n">
-        <v>68.07305546410173</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="F12" t="n">
-        <v>68.07305546410173</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="G12" t="n">
-        <v>68.07305546410173</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="H12" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="I12" t="n">
-        <v>68.07305546410173</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635118</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681695</v>
@@ -5136,34 +5136,34 @@
         <v>670.5904072110303</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.33384509054</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R12" t="n">
-        <v>747.33384509054</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="S12" t="n">
-        <v>733.9421253243615</v>
+        <v>556.8667975647002</v>
       </c>
       <c r="T12" t="n">
-        <v>696.9314691411817</v>
+        <v>500.9546782452634</v>
       </c>
       <c r="U12" t="n">
-        <v>637.4381273791868</v>
+        <v>441.4613364832685</v>
       </c>
       <c r="V12" t="n">
-        <v>574.4893681965131</v>
+        <v>378.5125773005948</v>
       </c>
       <c r="W12" t="n">
-        <v>467.9785700518655</v>
+        <v>289.2449669445783</v>
       </c>
       <c r="X12" t="n">
-        <v>428.601534582254</v>
+        <v>249.8679314749668</v>
       </c>
       <c r="Y12" t="n">
-        <v>238.1344870564141</v>
+        <v>204.3581973239866</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.79059153703781</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C13" t="n">
-        <v>15.79059153703781</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D13" t="n">
-        <v>48.6061206201439</v>
+        <v>47.90051924715262</v>
       </c>
       <c r="E13" t="n">
-        <v>48.6061206201439</v>
+        <v>47.90051924715262</v>
       </c>
       <c r="F13" t="n">
-        <v>48.6061206201439</v>
+        <v>47.90051924715262</v>
       </c>
       <c r="G13" t="n">
-        <v>48.6061206201439</v>
+        <v>57.43325411900262</v>
       </c>
       <c r="H13" t="n">
-        <v>48.6061206201439</v>
+        <v>57.43325411900262</v>
       </c>
       <c r="I13" t="n">
-        <v>48.6061206201439</v>
+        <v>57.43325411900262</v>
       </c>
       <c r="J13" t="n">
-        <v>48.6061206201439</v>
+        <v>57.43325411900262</v>
       </c>
       <c r="K13" t="n">
-        <v>158.8101295811416</v>
+        <v>57.43325411900262</v>
       </c>
       <c r="L13" t="n">
-        <v>248.970286199238</v>
+        <v>57.43325411900262</v>
       </c>
       <c r="M13" t="n">
-        <v>400.5753329514384</v>
+        <v>168.9543078831934</v>
       </c>
       <c r="N13" t="n">
-        <v>400.5753329514384</v>
+        <v>329.168539406958</v>
       </c>
       <c r="O13" t="n">
-        <v>400.5753329514384</v>
+        <v>468.6318884260457</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612854</v>
+        <v>468.6318884260457</v>
       </c>
       <c r="Q13" t="n">
         <v>519.2459201612854</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>437.1389221975538</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="C14" t="n">
-        <v>437.1389221975538</v>
+        <v>390.1704929425232</v>
       </c>
       <c r="D14" t="n">
-        <v>437.1389221975538</v>
+        <v>375.9442680428624</v>
       </c>
       <c r="E14" t="n">
-        <v>268.8522049563935</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="F14" t="n">
-        <v>78.38515743055356</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="G14" t="n">
-        <v>78.38515743055356</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055356</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I14" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567087</v>
+        <v>97.54238483187081</v>
       </c>
       <c r="K14" t="n">
-        <v>285.5745218649279</v>
+        <v>267.47113264009</v>
       </c>
       <c r="L14" t="n">
-        <v>332.3478600952218</v>
+        <v>314.244470870384</v>
       </c>
       <c r="M14" t="n">
-        <v>413.2681708183736</v>
+        <v>395.1647815935357</v>
       </c>
       <c r="N14" t="n">
-        <v>488.6554207516117</v>
+        <v>470.5520315267738</v>
       </c>
       <c r="O14" t="n">
-        <v>522.9321043850413</v>
+        <v>504.8287151602034</v>
       </c>
       <c r="P14" t="n">
-        <v>684.5852410629752</v>
+        <v>666.4818518381373</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R14" t="n">
-        <v>737.5517418112274</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S14" t="n">
-        <v>737.5517418112274</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="T14" t="n">
-        <v>692.9711749822829</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="U14" t="n">
-        <v>620.4248464098274</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V14" t="n">
-        <v>620.4248464098274</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="W14" t="n">
-        <v>620.4248464098274</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="X14" t="n">
-        <v>437.1389221975538</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Y14" t="n">
-        <v>437.1389221975538</v>
+        <v>563.7824606764864</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>223.2596604602433</v>
+        <v>171.6172627069152</v>
       </c>
       <c r="C15" t="n">
-        <v>33.847386193207</v>
+        <v>162.335947353571</v>
       </c>
       <c r="D15" t="n">
-        <v>15.08499016404652</v>
+        <v>162.335947353571</v>
       </c>
       <c r="E15" t="n">
-        <v>15.08499016404652</v>
+        <v>162.335947353571</v>
       </c>
       <c r="F15" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="G15" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="H15" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635112</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L15" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.3338450905399</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R15" t="n">
-        <v>747.3338450905399</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S15" t="n">
-        <v>556.8667975646999</v>
+        <v>733.9421253243615</v>
       </c>
       <c r="T15" t="n">
-        <v>519.85614138152</v>
+        <v>696.9314691411817</v>
       </c>
       <c r="U15" t="n">
-        <v>460.3627996195252</v>
+        <v>637.4381273791868</v>
       </c>
       <c r="V15" t="n">
-        <v>397.4140404368515</v>
+        <v>446.9710798533468</v>
       </c>
       <c r="W15" t="n">
-        <v>308.1464300808349</v>
+        <v>256.5040323275068</v>
       </c>
       <c r="X15" t="n">
-        <v>268.7693946112234</v>
+        <v>217.1269968578953</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.2596604602433</v>
+        <v>171.6172627069152</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C16" t="n">
-        <v>15.08499016404652</v>
+        <v>26.8387338331036</v>
       </c>
       <c r="D16" t="n">
-        <v>15.08499016404652</v>
+        <v>59.65426291620969</v>
       </c>
       <c r="E16" t="n">
-        <v>15.08499016404652</v>
+        <v>95.94123594741664</v>
       </c>
       <c r="F16" t="n">
-        <v>15.08499016404652</v>
+        <v>134.9499753824641</v>
       </c>
       <c r="G16" t="n">
-        <v>15.08499016404652</v>
+        <v>144.4827102543141</v>
       </c>
       <c r="H16" t="n">
-        <v>15.08499016404652</v>
+        <v>156.8642360949219</v>
       </c>
       <c r="I16" t="n">
-        <v>15.08499016404652</v>
+        <v>156.8642360949219</v>
       </c>
       <c r="J16" t="n">
-        <v>15.08499016404652</v>
+        <v>214.3839271615335</v>
       </c>
       <c r="K16" t="n">
-        <v>125.2889991250443</v>
+        <v>324.5879361225312</v>
       </c>
       <c r="L16" t="n">
-        <v>125.2889991250443</v>
+        <v>324.5879361225312</v>
       </c>
       <c r="M16" t="n">
-        <v>219.5683396184332</v>
+        <v>349.9613012161987</v>
       </c>
       <c r="N16" t="n">
-        <v>379.7825711421978</v>
+        <v>349.9613012161987</v>
       </c>
       <c r="O16" t="n">
-        <v>519.2459201612854</v>
+        <v>349.9613012161987</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612854</v>
+        <v>468.6318884260457</v>
       </c>
       <c r="Q16" t="n">
         <v>519.2459201612854</v>
@@ -5476,10 +5476,10 @@
         <v>98.31875740980456</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456488</v>
+        <v>54.28865025456489</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340411</v>
+        <v>463.5335379340413</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844275</v>
+        <v>410.2194918844276</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438559</v>
+        <v>369.4643728438558</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372146</v>
+        <v>294.6620291372145</v>
       </c>
       <c r="F17" t="n">
         <v>187.8189404019092</v>
       </c>
       <c r="G17" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H17" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
         <v>70.94848926897389</v>
       </c>
       <c r="J17" t="n">
-        <v>225.1253958967707</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="K17" t="n">
-        <v>225.1253958967707</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="L17" t="n">
-        <v>271.8987341270647</v>
+        <v>304.3985807793436</v>
       </c>
       <c r="M17" t="n">
-        <v>352.8190448502164</v>
+        <v>385.3188915024954</v>
       </c>
       <c r="N17" t="n">
-        <v>428.2062947834545</v>
+        <v>460.7061414357335</v>
       </c>
       <c r="O17" t="n">
-        <v>462.4829784168841</v>
+        <v>494.982825069163</v>
       </c>
       <c r="P17" t="n">
-        <v>462.4829784168841</v>
+        <v>494.982825069163</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4829784168841</v>
+        <v>564.0214906197992</v>
       </c>
       <c r="R17" t="n">
-        <v>564.0214906197991</v>
+        <v>564.0214906197992</v>
       </c>
       <c r="S17" t="n">
-        <v>633.2375922995765</v>
+        <v>633.2375922995766</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933589</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557695</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338447</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059206</v>
+        <v>626.688713905921</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075482</v>
+        <v>540.9705567075486</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>284.3067431495515</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="C18" t="n">
-        <v>284.3067431495515</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="D18" t="n">
-        <v>123.5266269105832</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="E18" t="n">
-        <v>123.5266269105832</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="F18" t="n">
-        <v>123.5266269105832</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="G18" t="n">
-        <v>123.5266269105832</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="H18" t="n">
-        <v>123.5266269105832</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I18" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J18" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681695</v>
@@ -5604,40 +5604,40 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.3338450905399</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R18" t="n">
-        <v>611.2645134234347</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="S18" t="n">
-        <v>611.2645134234347</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="T18" t="n">
-        <v>611.2645134234347</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="U18" t="n">
-        <v>420.7974658975947</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="V18" t="n">
-        <v>420.7974658975947</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="W18" t="n">
-        <v>420.7974658975947</v>
+        <v>557.4487872623183</v>
       </c>
       <c r="X18" t="n">
-        <v>420.7974658975947</v>
+        <v>366.9817397364784</v>
       </c>
       <c r="Y18" t="n">
-        <v>420.7974658975947</v>
+        <v>176.5146922106384</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.533537934041</v>
+        <v>463.5335379340411</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844273</v>
+        <v>410.219491884427</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438552</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372141</v>
+        <v>294.6620291372138</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019084</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267298</v>
       </c>
       <c r="H20" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897389</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="J20" t="n">
         <v>257.6252425490496</v>
@@ -5756,46 +5756,46 @@
         <v>257.6252425490496</v>
       </c>
       <c r="L20" t="n">
-        <v>304.3985807793436</v>
+        <v>304.3985807793435</v>
       </c>
       <c r="M20" t="n">
         <v>385.3188915024953</v>
       </c>
       <c r="N20" t="n">
-        <v>460.7061414357335</v>
+        <v>460.7061414357333</v>
       </c>
       <c r="O20" t="n">
-        <v>494.982825069163</v>
+        <v>494.9828250691629</v>
       </c>
       <c r="P20" t="n">
-        <v>494.982825069163</v>
+        <v>578.5004165056289</v>
       </c>
       <c r="Q20" t="n">
-        <v>494.982825069163</v>
+        <v>578.5004165056289</v>
       </c>
       <c r="R20" t="n">
-        <v>564.0214906197991</v>
+        <v>680.0389287085439</v>
       </c>
       <c r="S20" t="n">
-        <v>633.2375922995765</v>
+        <v>680.0389287085439</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933589</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557697</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338448</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059206</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075482</v>
+        <v>540.9705567075483</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>747.3338450905399</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="C21" t="n">
-        <v>557.9215708235035</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="D21" t="n">
-        <v>397.1414545845353</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="E21" t="n">
-        <v>223.5782507059497</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="F21" t="n">
-        <v>63.15053442319382</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="G21" t="n">
-        <v>15.08499016404652</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="H21" t="n">
-        <v>15.08499016404652</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J21" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635115</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.3338450905399</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R21" t="n">
-        <v>747.3338450905399</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S21" t="n">
-        <v>747.3338450905399</v>
+        <v>556.8667975646999</v>
       </c>
       <c r="T21" t="n">
-        <v>747.3338450905399</v>
+        <v>366.39975003886</v>
       </c>
       <c r="U21" t="n">
-        <v>747.3338450905399</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="V21" t="n">
-        <v>747.3338450905399</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="W21" t="n">
-        <v>747.3338450905399</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="X21" t="n">
-        <v>747.3338450905399</v>
+        <v>303.5185187171792</v>
       </c>
       <c r="Y21" t="n">
-        <v>747.3338450905399</v>
+        <v>303.5185187171792</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340402</v>
+        <v>463.5335379340415</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844264</v>
+        <v>410.2194918844277</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438548</v>
+        <v>369.4643728438558</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372135</v>
+        <v>294.6620291372144</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019083</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267291</v>
+        <v>65.179298832673</v>
       </c>
       <c r="H23" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I23" t="n">
-        <v>70.94848926897387</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="J23" t="n">
-        <v>257.6252425490495</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="K23" t="n">
-        <v>444.3019958291252</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="L23" t="n">
-        <v>563.6652639125065</v>
+        <v>304.3985807793435</v>
       </c>
       <c r="M23" t="n">
-        <v>644.5855746356582</v>
+        <v>385.3188915024953</v>
       </c>
       <c r="N23" t="n">
-        <v>719.9728245688963</v>
+        <v>460.7061414357333</v>
       </c>
       <c r="O23" t="n">
-        <v>754.2495082023258</v>
+        <v>494.9828250691629</v>
       </c>
       <c r="P23" t="n">
-        <v>754.2495082023258</v>
+        <v>567.572754922251</v>
       </c>
       <c r="Q23" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="R23" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="S23" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="T23" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557691</v>
+        <v>730.5573952557703</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338439</v>
+        <v>689.6767164338453</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059198</v>
+        <v>626.6887139059211</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075473</v>
+        <v>540.9705567075487</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>561.5574632820101</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="C24" t="n">
-        <v>561.5574632820101</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="D24" t="n">
-        <v>400.7773470430418</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="E24" t="n">
-        <v>400.7773470430418</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="F24" t="n">
-        <v>400.7773470430418</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="G24" t="n">
-        <v>250.530453417124</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="H24" t="n">
-        <v>123.5266269105832</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="I24" t="n">
-        <v>15.08499016404652</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635086</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L24" t="n">
-        <v>170.4486221681692</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486673</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287429</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110299</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.3338450905395</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R24" t="n">
-        <v>747.3338450905395</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S24" t="n">
-        <v>561.5574632820101</v>
+        <v>747.33384509054</v>
       </c>
       <c r="T24" t="n">
-        <v>561.5574632820101</v>
+        <v>747.33384509054</v>
       </c>
       <c r="U24" t="n">
-        <v>561.5574632820101</v>
+        <v>556.8667975646999</v>
       </c>
       <c r="V24" t="n">
-        <v>561.5574632820101</v>
+        <v>556.8667975646999</v>
       </c>
       <c r="W24" t="n">
-        <v>561.5574632820101</v>
+        <v>366.39975003886</v>
       </c>
       <c r="X24" t="n">
-        <v>561.5574632820101</v>
+        <v>366.39975003886</v>
       </c>
       <c r="Y24" t="n">
-        <v>561.5574632820101</v>
+        <v>246.6089083910368</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="26">
@@ -6203,37 +6203,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792733</v>
+        <v>882.8924400792737</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962486</v>
+        <v>757.3316491962488</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471542</v>
+        <v>597.7236336471544</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693962</v>
+        <v>406.074873069396</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577072</v>
+        <v>198.6295596577069</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662777</v>
+        <v>63.72957914662743</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847216</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629836</v>
+        <v>375.9831015629835</v>
       </c>
       <c r="L26" t="n">
         <v>634.0887466946299</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191341</v>
+        <v>926.341364319134</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6242,7 +6242,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.662612870715</v>
@@ -6251,13 +6251,13 @@
         <v>1796.083086100842</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169498</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451891</v>
       </c>
       <c r="V26" t="n">
         <v>1627.258702662881</v>
@@ -6269,7 +6269,7 @@
         <v>1353.778677628126</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>197.3513637686087</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="C27" t="n">
-        <v>197.3513637686087</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="D27" t="n">
-        <v>197.3513637686087</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="E27" t="n">
-        <v>197.3513637686087</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="F27" t="n">
-        <v>197.3513637686087</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="G27" t="n">
-        <v>197.3513637686087</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="H27" t="n">
-        <v>197.3513637686087</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="I27" t="n">
         <v>88.90972702207205</v>
@@ -6330,25 +6330,25 @@
         <v>786.4450312622841</v>
       </c>
       <c r="S27" t="n">
-        <v>749.2514193328637</v>
+        <v>786.4450312622841</v>
       </c>
       <c r="T27" t="n">
-        <v>532.1098042359918</v>
+        <v>784.9266249210007</v>
       </c>
       <c r="U27" t="n">
-        <v>508.1087123158934</v>
+        <v>545.3023242453136</v>
       </c>
       <c r="V27" t="n">
-        <v>480.6522029751161</v>
+        <v>517.8458149045363</v>
       </c>
       <c r="W27" t="n">
-        <v>211.2536337054075</v>
+        <v>248.4472456348276</v>
       </c>
       <c r="X27" t="n">
-        <v>207.3688480776924</v>
+        <v>98.92721133115582</v>
       </c>
       <c r="Y27" t="n">
-        <v>197.3513637686087</v>
+        <v>88.90972702207205</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.41321716505084</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C28" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D28" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E28" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F28" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G28" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H28" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I28" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J28" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K28" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L28" t="n">
-        <v>266.2898381224435</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M28" t="n">
-        <v>266.2898381224435</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="N28" t="n">
-        <v>266.2898381224435</v>
+        <v>230.921847315824</v>
       </c>
       <c r="O28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="P28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177466</v>
+        <v>244.099493717747</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757519</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695577</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024696</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398207</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063874</v>
+        <v>39.6330719706388</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971341</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792735</v>
+        <v>882.8924400792738</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962487</v>
+        <v>757.3316491962489</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471543</v>
+        <v>597.7236336471544</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693959</v>
+        <v>406.074873069396</v>
       </c>
       <c r="G29" t="n">
         <v>198.629559657707</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662742</v>
+        <v>63.72957914662749</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847218</v>
       </c>
       <c r="K29" t="n">
         <v>375.9831015629838</v>
@@ -6470,7 +6470,7 @@
         <v>634.0887466946301</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191341</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6503,10 +6503,10 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>487.2555402822713</v>
+        <v>351.1862086151658</v>
       </c>
       <c r="C30" t="n">
-        <v>297.843266015235</v>
+        <v>161.7739343481295</v>
       </c>
       <c r="D30" t="n">
-        <v>137.0631497762668</v>
+        <v>161.7739343481295</v>
       </c>
       <c r="E30" t="n">
-        <v>137.0631497762668</v>
+        <v>161.7739343481295</v>
       </c>
       <c r="F30" t="n">
-        <v>137.0631497762668</v>
+        <v>161.7739343481295</v>
       </c>
       <c r="G30" t="n">
-        <v>35.92166172201684</v>
+        <v>161.7739343481295</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201684</v>
+        <v>161.7739343481295</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201684</v>
+        <v>88.90972702207205</v>
       </c>
       <c r="J30" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432148</v>
+        <v>73.9137287543215</v>
       </c>
       <c r="L30" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M30" t="n">
-        <v>373.0070382066378</v>
+        <v>373.0070382066379</v>
       </c>
       <c r="N30" t="n">
         <v>577.9583061004876</v>
@@ -6564,28 +6564,28 @@
         <v>786.4450312622841</v>
       </c>
       <c r="R30" t="n">
-        <v>786.4450312622841</v>
+        <v>650.375699595179</v>
       </c>
       <c r="S30" t="n">
-        <v>786.4450312622841</v>
+        <v>650.375699595179</v>
       </c>
       <c r="T30" t="n">
-        <v>784.9266249210008</v>
+        <v>648.8572932538955</v>
       </c>
       <c r="U30" t="n">
-        <v>760.9255330009024</v>
+        <v>624.856201333797</v>
       </c>
       <c r="V30" t="n">
-        <v>733.4690236601251</v>
+        <v>597.3996919930197</v>
       </c>
       <c r="W30" t="n">
-        <v>679.6936631460051</v>
+        <v>543.6243314788996</v>
       </c>
       <c r="X30" t="n">
-        <v>675.80887751829</v>
+        <v>539.7395458511846</v>
       </c>
       <c r="Y30" t="n">
-        <v>665.7913932092064</v>
+        <v>529.7220615421008</v>
       </c>
     </row>
     <row r="31">
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="F31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="G31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="H31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="I31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="J31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="K31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="L31" t="n">
-        <v>215.4458552473176</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="M31" t="n">
-        <v>266.2898381224435</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="N31" t="n">
-        <v>266.2898381224435</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224435</v>
+        <v>245.6625202541811</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224435</v>
+        <v>245.6625202541811</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177466</v>
+        <v>244.099493717747</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757519</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695577</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024696</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398195</v>
+        <v>48.17092928398207</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063873</v>
+        <v>39.6330719706388</v>
       </c>
       <c r="Y31" t="n">
         <v>35.92166172201684</v>
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971339</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792737</v>
+        <v>882.8924400792723</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962488</v>
+        <v>757.3316491962474</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471531</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693961</v>
+        <v>406.0748730693946</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577067</v>
+        <v>198.6295596577061</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662744</v>
+        <v>63.72957914662753</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847216</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629836</v>
+        <v>375.9831015629844</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946299</v>
+        <v>634.0887466946307</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191341</v>
+        <v>926.3413643191348</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6716,7 +6716,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q32" t="n">
         <v>1777.662612870715</v>
@@ -6734,16 +6734,16 @@
         <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W32" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.254848587299</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>665.7913932092064</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C33" t="n">
-        <v>530.6926981223265</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D33" t="n">
-        <v>369.9125818833583</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E33" t="n">
-        <v>196.3493780047727</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F33" t="n">
         <v>35.92166172201684</v>
@@ -6780,13 +6780,13 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432148</v>
+        <v>73.9137287543215</v>
       </c>
       <c r="L33" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066378</v>
+        <v>373.0070382066379</v>
       </c>
       <c r="N33" t="n">
         <v>577.9583061004876</v>
@@ -6798,31 +6798,31 @@
         <v>793.3606943740705</v>
       </c>
       <c r="Q33" t="n">
-        <v>786.4450312622841</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="R33" t="n">
-        <v>786.4450312622841</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="S33" t="n">
-        <v>786.4450312622841</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="T33" t="n">
-        <v>784.9266249210008</v>
+        <v>791.842288032787</v>
       </c>
       <c r="U33" t="n">
-        <v>760.9255330009024</v>
+        <v>767.8411961126885</v>
       </c>
       <c r="V33" t="n">
-        <v>733.4690236601251</v>
+        <v>740.3846867719111</v>
       </c>
       <c r="W33" t="n">
-        <v>679.6936631460051</v>
+        <v>481.0703491699928</v>
       </c>
       <c r="X33" t="n">
-        <v>675.80887751829</v>
+        <v>261.5623547866892</v>
       </c>
       <c r="Y33" t="n">
-        <v>665.7913932092064</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="34">
@@ -6868,37 +6868,37 @@
         <v>35.92166172201684</v>
       </c>
       <c r="N34" t="n">
-        <v>230.921847315824</v>
+        <v>102.8899420824485</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224435</v>
+        <v>102.8899420824485</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224435</v>
+        <v>256.3464833623381</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224435</v>
+        <v>256.3464833623381</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224442</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177472</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757521</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695578</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024697</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398195</v>
+        <v>48.17092928398213</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063873</v>
+        <v>39.63307197063882</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6932,34 +6932,34 @@
         <v>20.83667155797031</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516582</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="J35" t="n">
-        <v>51.58890486516582</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="K35" t="n">
-        <v>309.4427153950484</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="L35" t="n">
-        <v>356.2160536253424</v>
+        <v>98.3622430954598</v>
       </c>
       <c r="M35" t="n">
-        <v>614.069864155225</v>
+        <v>179.2825538186115</v>
       </c>
       <c r="N35" t="n">
-        <v>713.1903830613471</v>
+        <v>254.6698037518497</v>
       </c>
       <c r="O35" t="n">
-        <v>971.0441935912297</v>
+        <v>415.5058637716801</v>
       </c>
       <c r="P35" t="n">
-        <v>971.0441935912297</v>
+        <v>669.9517276947131</v>
       </c>
       <c r="Q35" t="n">
-        <v>971.0441935912297</v>
+        <v>850.512111304001</v>
       </c>
       <c r="R35" t="n">
-        <v>971.0441935912297</v>
+        <v>926.9393577091843</v>
       </c>
       <c r="S35" t="n">
         <v>971.0441935912297</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>771.3600410982376</v>
+        <v>355.8295774831478</v>
       </c>
       <c r="C36" t="n">
-        <v>581.9477668312013</v>
+        <v>355.8295774831478</v>
       </c>
       <c r="D36" t="n">
-        <v>581.9477668312013</v>
+        <v>355.8295774831478</v>
       </c>
       <c r="E36" t="n">
-        <v>408.3845629526157</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="F36" t="n">
-        <v>247.9568466698598</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="G36" t="n">
-        <v>200.8285633645663</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="H36" t="n">
-        <v>73.82473685802552</v>
+        <v>182.2663736045622</v>
       </c>
       <c r="I36" t="n">
         <v>73.82473685802552</v>
@@ -7035,31 +7035,31 @@
         <v>778.2757042100239</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.3600410982376</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="R36" t="n">
-        <v>771.3600410982376</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="S36" t="n">
-        <v>771.3600410982376</v>
+        <v>595.4538781588349</v>
       </c>
       <c r="T36" t="n">
-        <v>771.3600410982376</v>
+        <v>595.4538781588349</v>
       </c>
       <c r="U36" t="n">
-        <v>771.3600410982376</v>
+        <v>355.8295774831478</v>
       </c>
       <c r="V36" t="n">
-        <v>771.3600410982376</v>
+        <v>355.8295774831478</v>
       </c>
       <c r="W36" t="n">
-        <v>771.3600410982376</v>
+        <v>355.8295774831478</v>
       </c>
       <c r="X36" t="n">
-        <v>771.3600410982376</v>
+        <v>355.8295774831478</v>
       </c>
       <c r="Y36" t="n">
-        <v>771.3600410982376</v>
+        <v>355.8295774831478</v>
       </c>
     </row>
     <row r="37">
@@ -7087,10 +7087,10 @@
         <v>20.83667155797031</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="J37" t="n">
         <v>56.03657271633964</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837463</v>
+        <v>623.0119765837461</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248357</v>
+        <v>544.0768043248355</v>
       </c>
       <c r="D38" t="n">
-        <v>477.700559074967</v>
+        <v>477.7005590749669</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590288</v>
+        <v>377.2770891590287</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144266</v>
+        <v>244.8128742144265</v>
       </c>
       <c r="G38" t="n">
         <v>96.55210643589356</v>
@@ -7172,52 +7172,52 @@
         <v>51.58890486516582</v>
       </c>
       <c r="J38" t="n">
-        <v>244.942416002927</v>
+        <v>51.58890486516582</v>
       </c>
       <c r="K38" t="n">
-        <v>244.942416002927</v>
+        <v>51.58890486516582</v>
       </c>
       <c r="L38" t="n">
-        <v>291.715754233221</v>
+        <v>98.3622430954598</v>
       </c>
       <c r="M38" t="n">
-        <v>372.6360649563727</v>
+        <v>179.2825538186115</v>
       </c>
       <c r="N38" t="n">
-        <v>448.0233148896108</v>
+        <v>254.6698037518497</v>
       </c>
       <c r="O38" t="n">
-        <v>482.2999985230404</v>
+        <v>415.5058637716799</v>
       </c>
       <c r="P38" t="n">
-        <v>669.9517276947131</v>
+        <v>669.9517276947129</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.512111304001</v>
+        <v>850.5121113040008</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9393577091843</v>
+        <v>926.939357709184</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0441935912297</v>
+        <v>971.0441935912295</v>
       </c>
       <c r="T38" t="n">
         <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.833577898516</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426624</v>
+        <v>992.5203387426621</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114403</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742196</v>
+        <v>837.4094049742193</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665504</v>
+        <v>726.0701215665501</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>380.2318568997852</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="C39" t="n">
-        <v>190.8195826327489</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="D39" t="n">
-        <v>30.03946639378069</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="E39" t="n">
-        <v>30.03946639378069</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="F39" t="n">
-        <v>30.03946639378069</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="G39" t="n">
-        <v>30.03946639378069</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="H39" t="n">
-        <v>30.03946639378069</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I39" t="n">
         <v>20.83667155797031</v>
@@ -7275,28 +7275,28 @@
         <v>778.2757042100239</v>
       </c>
       <c r="R39" t="n">
-        <v>778.2757042100239</v>
+        <v>642.2063725429188</v>
       </c>
       <c r="S39" t="n">
-        <v>778.2757042100239</v>
+        <v>448.6836938630481</v>
       </c>
       <c r="T39" t="n">
-        <v>778.2757042100239</v>
+        <v>448.6836938630481</v>
       </c>
       <c r="U39" t="n">
-        <v>778.2757042100239</v>
+        <v>448.6836938630481</v>
       </c>
       <c r="V39" t="n">
-        <v>778.2757042100239</v>
+        <v>448.6836938630481</v>
       </c>
       <c r="W39" t="n">
-        <v>778.2757042100239</v>
+        <v>367.3484924478147</v>
       </c>
       <c r="X39" t="n">
-        <v>558.7677098267203</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="Y39" t="n">
-        <v>558.7677098267203</v>
+        <v>147.8404980645111</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="I40" t="n">
         <v>56.03657271633964</v>
@@ -7372,10 +7372,10 @@
         <v>20.83667155797031</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633964</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>478.6394038173169</v>
       </c>
       <c r="F41" t="n">
-        <v>314.798560664169</v>
+        <v>314.7985606641691</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770911</v>
@@ -7409,25 +7409,25 @@
         <v>28.06910159062233</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06910159062233</v>
+        <v>190.670379421188</v>
       </c>
       <c r="K41" t="n">
-        <v>28.06910159062233</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L41" t="n">
-        <v>74.8424398209163</v>
+        <v>469.4129593976048</v>
       </c>
       <c r="M41" t="n">
-        <v>394.3495973132813</v>
+        <v>550.3332701207565</v>
       </c>
       <c r="N41" t="n">
-        <v>708.3236940157326</v>
+        <v>864.307366823208</v>
       </c>
       <c r="O41" t="n">
-        <v>981.1872244183755</v>
+        <v>952.5786025514938</v>
       </c>
       <c r="P41" t="n">
-        <v>1204.880855034213</v>
+        <v>1176.272233167331</v>
       </c>
       <c r="Q41" t="n">
         <v>1326.080383469424</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>208.0609933972183</v>
+        <v>70.9608775249913</v>
       </c>
       <c r="C42" t="n">
-        <v>208.0609933972183</v>
+        <v>70.9608775249913</v>
       </c>
       <c r="D42" t="n">
-        <v>208.0609933972183</v>
+        <v>70.9608775249913</v>
       </c>
       <c r="E42" t="n">
-        <v>208.0609933972183</v>
+        <v>70.9608775249913</v>
       </c>
       <c r="F42" t="n">
-        <v>208.0609933972183</v>
+        <v>70.9608775249913</v>
       </c>
       <c r="G42" t="n">
-        <v>208.0609933972183</v>
+        <v>70.9608775249913</v>
       </c>
       <c r="H42" t="n">
-        <v>81.05716689067754</v>
+        <v>70.9608775249913</v>
       </c>
       <c r="I42" t="n">
-        <v>81.05716689067754</v>
+        <v>70.9608775249913</v>
       </c>
       <c r="J42" t="n">
         <v>28.06910159062233</v>
@@ -7521,19 +7521,19 @@
         <v>785.508134242676</v>
       </c>
       <c r="U42" t="n">
-        <v>545.8838335669889</v>
+        <v>785.508134242676</v>
       </c>
       <c r="V42" t="n">
-        <v>302.8041154706229</v>
+        <v>785.508134242676</v>
       </c>
       <c r="W42" t="n">
-        <v>276.8366723811135</v>
+        <v>516.1095649729673</v>
       </c>
       <c r="X42" t="n">
-        <v>208.0609933972183</v>
+        <v>296.6015705896637</v>
       </c>
       <c r="Y42" t="n">
-        <v>208.0609933972183</v>
+        <v>70.9608775249913</v>
       </c>
     </row>
     <row r="43">
@@ -7546,49 +7546,49 @@
         <v>28.06910159062233</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06910159062233</v>
+        <v>35.31997378755057</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="H43" t="n">
-        <v>102.4911213691336</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="I43" t="n">
-        <v>102.4911213691336</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="J43" t="n">
-        <v>102.4911213691336</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="K43" t="n">
-        <v>102.4911213691336</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="L43" t="n">
-        <v>102.4911213691336</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="M43" t="n">
-        <v>102.4911213691336</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="N43" t="n">
-        <v>102.4911213691336</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="O43" t="n">
-        <v>102.4911213691336</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="P43" t="n">
-        <v>102.4911213691336</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.4911213691336</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="R43" t="n">
         <v>130.1759968085602</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.504175867672</v>
+        <v>818.5041758676715</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002157</v>
+        <v>708.1923754002155</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418014</v>
+        <v>610.4395019418012</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173173</v>
+        <v>478.6394038173171</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641696</v>
+        <v>314.7985606641694</v>
       </c>
       <c r="G44" t="n">
         <v>135.1611646770911</v>
@@ -7646,34 +7646,34 @@
         <v>28.06910159062233</v>
       </c>
       <c r="J44" t="n">
-        <v>83.4527808085241</v>
+        <v>190.670379421188</v>
       </c>
       <c r="K44" t="n">
-        <v>315.4220225546469</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L44" t="n">
-        <v>362.1953607849409</v>
+        <v>469.4129593976048</v>
       </c>
       <c r="M44" t="n">
-        <v>443.1156715080926</v>
+        <v>550.3332701207565</v>
       </c>
       <c r="N44" t="n">
-        <v>757.089768210544</v>
+        <v>864.307366823208</v>
       </c>
       <c r="O44" t="n">
-        <v>1029.953298613187</v>
+        <v>1137.170897225851</v>
       </c>
       <c r="P44" t="n">
-        <v>1253.646929229024</v>
+        <v>1176.272233167331</v>
       </c>
       <c r="Q44" t="n">
-        <v>1403.455079531117</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.455079531117</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.455079531117</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
@@ -7691,7 +7691,7 @@
         <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590215</v>
+        <v>952.9389490590211</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>391.0445797362441</v>
+        <v>349.9265199199701</v>
       </c>
       <c r="C45" t="n">
-        <v>201.6323054692079</v>
+        <v>349.9265199199701</v>
       </c>
       <c r="D45" t="n">
-        <v>201.6323054692079</v>
+        <v>349.9265199199701</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06910159062233</v>
+        <v>349.9265199199701</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062233</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062233</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06910159062233</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062233</v>
+        <v>81.05716689067754</v>
       </c>
       <c r="J45" t="n">
         <v>28.06910159062233</v>
@@ -7755,22 +7755,22 @@
         <v>785.508134242676</v>
       </c>
       <c r="T45" t="n">
-        <v>785.508134242676</v>
+        <v>619.3250891896788</v>
       </c>
       <c r="U45" t="n">
-        <v>595.5478757526886</v>
+        <v>619.3250891896788</v>
       </c>
       <c r="V45" t="n">
-        <v>595.5478757526886</v>
+        <v>619.3250891896788</v>
       </c>
       <c r="W45" t="n">
-        <v>569.5804326631792</v>
+        <v>349.9265199199701</v>
       </c>
       <c r="X45" t="n">
-        <v>569.5804326631792</v>
+        <v>349.9265199199701</v>
       </c>
       <c r="Y45" t="n">
-        <v>569.5804326631792</v>
+        <v>349.9265199199701</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062233</v>
+        <v>29.12676343560915</v>
       </c>
       <c r="C46" t="n">
-        <v>101.863339197583</v>
+        <v>29.12676343560915</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1124553355487</v>
+        <v>29.12676343560915</v>
       </c>
       <c r="E46" t="n">
-        <v>113.1124553355487</v>
+        <v>29.12676343560915</v>
       </c>
       <c r="F46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="G46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="H46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="I46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="J46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="K46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="L46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="M46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="N46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="O46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="P46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="R46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="S46" t="n">
-        <v>113.1124553355487</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="T46" t="n">
         <v>130.1759968085602</v>
@@ -8784,7 +8784,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786795</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3734735841506</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.195214002696503</v>
+        <v>7.195214002696446</v>
       </c>
       <c r="C11" t="n">
         <v>171.8758480566236</v>
@@ -23267,13 +23267,13 @@
         <v>193.1492627370809</v>
       </c>
       <c r="F11" t="n">
-        <v>36.30722326487665</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G11" t="n">
-        <v>201.4084983655332</v>
+        <v>181.0485378749703</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494461</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.5307887271877</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673099</v>
+        <v>71.82086528673101</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845968</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
         <v>181.4530649701509</v>
@@ -23495,25 +23495,25 @@
         <v>195.7575910532781</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566236</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.442510317672</v>
+        <v>145.358547667008</v>
       </c>
       <c r="E14" t="n">
-        <v>26.5454126683323</v>
+        <v>4.586885686499329</v>
       </c>
       <c r="F14" t="n">
-        <v>36.30722326487668</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G14" t="n">
         <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494461</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.53078872718769</v>
       </c>
       <c r="S14" t="n">
         <v>49.17968824550869</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13476116065503</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V14" t="n">
         <v>142.5501342845968</v>
@@ -23558,10 +23558,10 @@
         <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938946</v>
+        <v>15.39354104331306</v>
       </c>
     </row>
     <row r="15">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>308676.1983117608</v>
+      </c>
+      <c r="C2" t="n">
         <v>308676.1983117609</v>
       </c>
-      <c r="C2" t="n">
-        <v>308676.198311761</v>
-      </c>
       <c r="D2" t="n">
-        <v>308676.1983117609</v>
+        <v>308676.1983117608</v>
       </c>
       <c r="E2" t="n">
+        <v>265996.531157168</v>
+      </c>
+      <c r="F2" t="n">
         <v>265996.5311571681</v>
       </c>
-      <c r="F2" t="n">
-        <v>265996.531157168</v>
-      </c>
       <c r="G2" t="n">
-        <v>309301.4921004878</v>
+        <v>309301.4921004876</v>
       </c>
       <c r="H2" t="n">
         <v>309301.4921004877</v>
@@ -26335,7 +26335,7 @@
         <v>309301.4921004876</v>
       </c>
       <c r="J2" t="n">
-        <v>309301.4921004882</v>
+        <v>309301.492100488</v>
       </c>
       <c r="K2" t="n">
         <v>309301.492100488</v>
@@ -26344,16 +26344,16 @@
         <v>309301.4921004879</v>
       </c>
       <c r="M2" t="n">
+        <v>309301.4921004876</v>
+      </c>
+      <c r="N2" t="n">
+        <v>309301.4921004877</v>
+      </c>
+      <c r="O2" t="n">
         <v>309301.4921004875</v>
       </c>
-      <c r="N2" t="n">
-        <v>309301.4921004878</v>
-      </c>
-      <c r="O2" t="n">
-        <v>309301.4921004876</v>
-      </c>
       <c r="P2" t="n">
-        <v>309301.4921004876</v>
+        <v>309301.4921004875</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842063</v>
+        <v>280312.8421842064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143645.0035243413</v>
+        <v>143645.0035243412</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400478</v>
+        <v>95275.95397400476</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145967</v>
+        <v>46874.16014145974</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660011</v>
+        <v>72403.48181660012</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,19 +26433,19 @@
         <v>395809.2702669877</v>
       </c>
       <c r="H4" t="n">
-        <v>395809.2702669878</v>
+        <v>395809.2702669877</v>
       </c>
       <c r="I4" t="n">
         <v>395809.2702669878</v>
       </c>
       <c r="J4" t="n">
-        <v>396695.6540483334</v>
+        <v>396695.6540483333</v>
       </c>
       <c r="K4" t="n">
-        <v>396695.6540483334</v>
+        <v>396695.6540483333</v>
       </c>
       <c r="L4" t="n">
-        <v>396695.6540483334</v>
+        <v>396695.6540483333</v>
       </c>
       <c r="M4" t="n">
         <v>395870.6270705321</v>
@@ -26488,10 +26488,10 @@
         <v>38676.1388413194</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.13884131939</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="K5" t="n">
         <v>47453.77647951488</v>
@@ -26503,7 +26503,7 @@
         <v>40915.013666005</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="O5" t="n">
         <v>43800.23675152496</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-160474.0403095543</v>
+        <v>-160478.5066937596</v>
       </c>
       <c r="C6" t="n">
-        <v>-160474.0403095543</v>
+        <v>-160478.5066937596</v>
       </c>
       <c r="D6" t="n">
-        <v>-160474.0403095543</v>
+        <v>-160478.5066937596</v>
       </c>
       <c r="E6" t="n">
-        <v>-368326.5510123373</v>
+        <v>-368635.8721619326</v>
       </c>
       <c r="F6" t="n">
-        <v>-88013.7088281311</v>
+        <v>-88323.02997772612</v>
       </c>
       <c r="G6" t="n">
-        <v>-220459.8709818241</v>
+        <v>-220459.8709818243</v>
       </c>
       <c r="H6" t="n">
-        <v>-125183.9170078195</v>
+        <v>-125183.9170078194</v>
       </c>
       <c r="I6" t="n">
         <v>-125183.9170078195</v>
@@ -26546,22 +26546,22 @@
         <v>-278492.9419517014</v>
       </c>
       <c r="K6" t="n">
-        <v>-134847.9384273602</v>
+        <v>-134847.9384273601</v>
       </c>
       <c r="L6" t="n">
-        <v>-230123.8924013651</v>
+        <v>-230123.892401365</v>
       </c>
       <c r="M6" t="n">
-        <v>-174358.3087775092</v>
+        <v>-174358.3087775091</v>
       </c>
       <c r="N6" t="n">
         <v>-127484.1486360494</v>
       </c>
       <c r="O6" t="n">
-        <v>-203160.0969109073</v>
+        <v>-203160.0969109074</v>
       </c>
       <c r="P6" t="n">
-        <v>-130756.6150943072</v>
+        <v>-130756.6150943073</v>
       </c>
     </row>
   </sheetData>
@@ -26799,16 +26799,16 @@
         <v>188.5623770505816</v>
       </c>
       <c r="F4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="G4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="H4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="J4" t="n">
         <v>449.0207715252105</v>
@@ -26823,7 +26823,7 @@
         <v>260.4583944746289</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="O4" t="n">
         <v>350.8637698827792</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682459</v>
+        <v>58.59270017682468</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746291</v>
+        <v>260.458394474629</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815029</v>
+        <v>90.40537540815035</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28114,13 +28114,13 @@
         <v>178.3296493245552</v>
       </c>
       <c r="K11" t="n">
-        <v>53.21870813085641</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>106.8246894514384</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245552</v>
+        <v>160.043397582295</v>
       </c>
       <c r="Q11" t="n">
         <v>178.3296493245552</v>
@@ -28172,7 +28172,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28184,7 +28184,7 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>107.3572203790713</v>
@@ -28217,10 +28217,10 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245552</v>
+        <v>3.025074842490255</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245552</v>
+        <v>159.6172008196609</v>
       </c>
       <c r="U12" t="n">
         <v>178.3296493245552</v>
@@ -28229,13 +28229,13 @@
         <v>178.3296493245552</v>
       </c>
       <c r="W12" t="n">
-        <v>161.2588934138105</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X12" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="Y12" t="n">
-        <v>34.82190908344404</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.3296493245552</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28260,7 +28260,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7006242014745</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H13" t="n">
         <v>165.8230575663656</v>
@@ -28272,25 +28272,25 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
+        <v>67.01246855587065</v>
+      </c>
+      <c r="L13" t="n">
+        <v>32.12940745055727</v>
+      </c>
+      <c r="M13" t="n">
+        <v>137.8407675184849</v>
+      </c>
+      <c r="N13" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="L13" t="n">
-        <v>123.2002727213617</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="N13" t="n">
-        <v>16.49709222984362</v>
-      </c>
-      <c r="O13" t="n">
-        <v>37.45757960830505</v>
-      </c>
       <c r="P13" t="n">
+        <v>58.46036931460878</v>
+      </c>
+      <c r="Q13" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
         <v>178.3296493245552</v>
@@ -28348,7 +28348,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>178.3296493245552</v>
+        <v>160.0433975822948</v>
       </c>
       <c r="K14" t="n">
         <v>178.3296493245552</v>
@@ -28369,7 +28369,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="Q14" t="n">
-        <v>160.0433975822947</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R14" t="n">
         <v>178.3296493245552</v>
@@ -28406,16 +28406,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
-        <v>140.5975430077097</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>65.50317614935372</v>
       </c>
       <c r="G15" t="n">
         <v>148.7444246896586</v>
@@ -28427,7 +28427,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>3.025074842490355</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T15" t="n">
         <v>178.3296493245552</v>
@@ -28463,10 +28463,10 @@
         <v>178.3296493245552</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245552</v>
+        <v>52.08654386482067</v>
       </c>
       <c r="W15" t="n">
-        <v>178.3296493245552</v>
+        <v>78.14220652643002</v>
       </c>
       <c r="X15" t="n">
         <v>178.3296493245552</v>
@@ -28485,28 +28485,28 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7006242014745</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I16" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2289512774728</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K16" t="n">
         <v>178.3296493245552</v>
@@ -28515,19 +28515,19 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M16" t="n">
-        <v>120.424895527776</v>
+        <v>50.82290017452195</v>
       </c>
       <c r="N16" t="n">
+        <v>16.49709222984362</v>
+      </c>
+      <c r="O16" t="n">
+        <v>37.45757960830505</v>
+      </c>
+      <c r="P16" t="n">
         <v>178.3296493245552</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="P16" t="n">
-        <v>58.46036931460879</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
         <v>178.3296493245552</v>
@@ -28585,10 +28585,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>232.4873490570145</v>
+        <v>265.3154769886094</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273205</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017751</v>
+        <v>15.0436526801775</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.67545097688969</v>
+        <v>159.4114767856131</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4245917920612</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S17" t="n">
         <v>297.4245917920612</v>
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41.62467887710292</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28664,7 +28664,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28697,19 +28697,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U18" t="n">
-        <v>48.66568061834862</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>213.4270146775063</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.75053738888903</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>34.82190908344404</v>
       </c>
     </row>
     <row r="19">
@@ -28761,7 +28761,7 @@
         <v>37.45757960830505</v>
       </c>
       <c r="P19" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
@@ -28825,7 +28825,7 @@
         <v>265.3154769886094</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273205</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017751</v>
+        <v>99.40485615135526</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.67545097688969</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R20" t="n">
-        <v>264.5964638604663</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4245917920612</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T20" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V20" t="n">
         <v>297.4245917920612</v>
@@ -28880,28 +28880,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>101.1595358731027</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,13 +28928,13 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490312</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532172</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280576689302</v>
+        <v>174.9756386604662</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28998,7 +28998,7 @@
         <v>37.45757960830505</v>
       </c>
       <c r="P22" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
@@ -29059,13 +29059,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>265.3154769886093</v>
+        <v>265.3154769886094</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2468265688547</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L23" t="n">
-        <v>73.32316146776498</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29077,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017751</v>
+        <v>88.36681414794322</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.67545097688969</v>
+        <v>278.2378280274713</v>
       </c>
       <c r="R23" t="n">
-        <v>194.860438051743</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S23" t="n">
         <v>227.5093375700639</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29129,16 +29129,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29165,25 +29165,25 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
-        <v>7.668833902627767</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T24" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280576689302</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.14220652643002</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>104.7913529026807</v>
       </c>
     </row>
     <row r="25">
@@ -29235,7 +29235,7 @@
         <v>37.45757960830505</v>
       </c>
       <c r="P25" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
@@ -29372,7 +29372,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,13 +29402,13 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S27" t="n">
-        <v>154.7657760829457</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>213.4669766680327</v>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4669766680327</v>
+        <v>69.28808047883555</v>
       </c>
       <c r="Y27" t="n">
         <v>213.4669766680327</v>
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.4669766680327</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29460,19 +29460,19 @@
         <v>67.01246855587065</v>
       </c>
       <c r="L28" t="n">
-        <v>181.9646834286309</v>
+        <v>32.12940745055727</v>
       </c>
       <c r="M28" t="n">
         <v>25.19323846374673</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984362</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830505</v>
+        <v>73.18282284731508</v>
       </c>
       <c r="P28" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q28" t="n">
         <v>127.204364743505</v>
@@ -29594,7 +29594,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29603,16 +29603,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>48.61435151595111</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H30" t="n">
         <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3572203790713</v>
+        <v>35.22165512627446</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5874518930719</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29697,22 +29697,22 @@
         <v>67.01246855587065</v>
       </c>
       <c r="L31" t="n">
-        <v>213.4669766680327</v>
+        <v>32.12940745055727</v>
       </c>
       <c r="M31" t="n">
-        <v>76.55079692346996</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N31" t="n">
         <v>16.49709222984362</v>
       </c>
       <c r="O31" t="n">
-        <v>37.45757960830505</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="P31" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.204364743505</v>
+        <v>148.0400393579119</v>
       </c>
       <c r="R31" t="n">
         <v>203.4231839810569</v>
@@ -29773,7 +29773,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="K32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680336</v>
       </c>
       <c r="L32" t="n">
         <v>213.4669766680327</v>
@@ -29794,7 +29794,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="R32" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S32" t="n">
         <v>213.4669766680327</v>
@@ -29828,16 +29828,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>53.77044338835489</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7444246896586</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R33" t="n">
         <v>134.7086383504341</v>
@@ -29888,13 +29888,13 @@
         <v>213.4669766680327</v>
       </c>
       <c r="W33" t="n">
-        <v>213.4669766680327</v>
+        <v>9.983389351112521</v>
       </c>
       <c r="X33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29940,19 +29940,19 @@
         <v>25.19323846374673</v>
       </c>
       <c r="N34" t="n">
+        <v>84.14181986664327</v>
+      </c>
+      <c r="O34" t="n">
+        <v>37.45757960830505</v>
+      </c>
+      <c r="P34" t="n">
         <v>213.4669766680327</v>
-      </c>
-      <c r="O34" t="n">
-        <v>73.18282284731465</v>
-      </c>
-      <c r="P34" t="n">
-        <v>58.46036931460879</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680327</v>
@@ -30010,31 +30010,31 @@
         <v>76.75309993802784</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1428439929021</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7207068754857</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>23.97299896250912</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>225.835481713589</v>
+        <v>127.8377539256574</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017751</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.67545097688969</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R35" t="n">
-        <v>194.860438051743</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5093375700639</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="T35" t="n">
         <v>272.0596768448573</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>102.087424217418</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30107,19 +30107,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R36" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5874518930719</v>
+        <v>10.59384410239471</v>
       </c>
       <c r="T36" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -30159,13 +30159,13 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H37" t="n">
-        <v>165.8230575663656</v>
+        <v>201.3785132818902</v>
       </c>
       <c r="I37" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J37" t="n">
-        <v>155.7844069929973</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
         <v>67.01246855587065</v>
@@ -30183,7 +30183,7 @@
         <v>37.45757960830505</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
@@ -30244,25 +30244,25 @@
         <v>272.0596768448573</v>
       </c>
       <c r="J38" t="n">
+        <v>76.75309993802784</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6.684449518273198</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>127.8377539256572</v>
+      </c>
+      <c r="P38" t="n">
         <v>272.0596768448573</v>
-      </c>
-      <c r="K38" t="n">
-        <v>6.684449518273205</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>204.5908538636853</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0596768448573</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30317,10 +30317,10 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>98.24645349161904</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
         <v>52.45818464705465</v>
@@ -30344,13 +30344,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9701989459033</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>186.1827341759306</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30399,7 +30399,7 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I40" t="n">
-        <v>200.4038910512814</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J40" t="n">
         <v>120.2289512774728</v>
@@ -30420,7 +30420,7 @@
         <v>37.45757960830505</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
@@ -30444,7 +30444,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>257.4749111237671</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30481,28 +30481,28 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J41" t="n">
-        <v>76.75309993802784</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="K41" t="n">
-        <v>6.684449518273205</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="O41" t="n">
-        <v>240.9968149183972</v>
+        <v>54.53995161096586</v>
       </c>
       <c r="P41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.0992170730622</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="R41" t="n">
         <v>240.9968149183972</v>
@@ -30554,13 +30554,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>9.995326472029376</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30593,19 +30593,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>149.2249922454144</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30618,10 +30618,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>173.7812943022029</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30633,7 +30633,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H43" t="n">
-        <v>240.9968149183972</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I43" t="n">
         <v>164.8484353357569</v>
@@ -30657,13 +30657,13 @@
         <v>37.45757960830505</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q43" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R43" t="n">
-        <v>231.3877046269423</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S43" t="n">
         <v>235.4354176286827</v>
@@ -30718,7 +30718,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6962102591407</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
         <v>240.9968149183972</v>
@@ -30736,19 +30736,19 @@
         <v>240.9968149183972</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9968149183972</v>
+        <v>54.53995161096572</v>
       </c>
       <c r="Q44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="R44" t="n">
-        <v>194.860438051743</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5093375700639</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4644104852103</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
@@ -30794,10 +30794,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R45" t="n">
         <v>134.7086383504341</v>
@@ -30827,16 +30827,16 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9701989459033</v>
+        <v>50.44898434343611</v>
       </c>
       <c r="U45" t="n">
-        <v>49.16740176384269</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30852,19 +30852,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>178.6852659629346</v>
       </c>
       <c r="C46" t="n">
-        <v>240.9968149183972</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>156.5453938244135</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="G46" t="n">
         <v>168.7006242014745</v>
@@ -30894,7 +30894,7 @@
         <v>37.45757960830505</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q46" t="n">
         <v>127.204364743505</v>
@@ -30906,7 +30906,7 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T46" t="n">
-        <v>240.9968149183972</v>
+        <v>223.7609144406078</v>
       </c>
       <c r="U46" t="n">
         <v>240.9968149183972</v>
@@ -31762,13 +31762,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M11" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N11" t="n">
         <v>72.63186787517631</v>
@@ -31780,19 +31780,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R11" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S11" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T11" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H12" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I12" t="n">
         <v>7.498599068645659</v>
@@ -31847,28 +31847,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N12" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O12" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R12" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U12" t="n">
         <v>0.01432853325218916</v>
@@ -31914,7 +31914,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J13" t="n">
         <v>12.90917850146574</v>
@@ -31926,28 +31926,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N13" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S13" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U13" t="n">
         <v>0.009959505080210177</v>
@@ -31999,13 +31999,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N14" t="n">
         <v>72.63186787517631</v>
@@ -32017,19 +32017,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R14" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S14" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T14" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H15" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I15" t="n">
         <v>7.498599068645659</v>
@@ -32084,28 +32084,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N15" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O15" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R15" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U15" t="n">
         <v>0.01432853325218916</v>
@@ -32151,7 +32151,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J16" t="n">
         <v>12.90917850146574</v>
@@ -32163,28 +32163,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M16" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N16" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O16" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S16" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U16" t="n">
         <v>0.009959505080210177</v>
@@ -32236,13 +32236,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M17" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N17" t="n">
         <v>72.63186787517631</v>
@@ -32254,19 +32254,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R17" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S17" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T17" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H18" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I18" t="n">
         <v>7.498599068645659</v>
@@ -32321,28 +32321,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N18" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O18" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R18" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218916</v>
@@ -32388,7 +32388,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J19" t="n">
         <v>12.90917850146574</v>
@@ -32400,28 +32400,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N19" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O19" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P19" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S19" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U19" t="n">
         <v>0.009959505080210177</v>
@@ -32473,13 +32473,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M20" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N20" t="n">
         <v>72.63186787517631</v>
@@ -32491,19 +32491,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R20" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S20" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T20" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H21" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I21" t="n">
         <v>7.498599068645659</v>
@@ -32558,28 +32558,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N21" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O21" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R21" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218916</v>
@@ -32625,7 +32625,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146574</v>
@@ -32637,28 +32637,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N22" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O22" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S22" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U22" t="n">
         <v>0.009959505080210177</v>
@@ -32710,13 +32710,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M23" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N23" t="n">
         <v>72.63186787517631</v>
@@ -32728,19 +32728,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R23" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S23" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T23" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H24" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I24" t="n">
         <v>7.498599068645659</v>
@@ -32795,28 +32795,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N24" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O24" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R24" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218916</v>
@@ -32862,7 +32862,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146574</v>
@@ -32874,28 +32874,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N25" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O25" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S25" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U25" t="n">
         <v>0.009959505080210177</v>
@@ -32947,13 +32947,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M26" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N26" t="n">
         <v>72.63186787517631</v>
@@ -32965,19 +32965,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R26" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S26" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T26" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H27" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I27" t="n">
         <v>7.498599068645659</v>
@@ -33032,28 +33032,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N27" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O27" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R27" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218916</v>
@@ -33099,7 +33099,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146574</v>
@@ -33111,28 +33111,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N28" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O28" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S28" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U28" t="n">
         <v>0.009959505080210177</v>
@@ -33184,13 +33184,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M29" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N29" t="n">
         <v>72.63186787517631</v>
@@ -33202,19 +33202,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R29" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S29" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T29" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H30" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I30" t="n">
         <v>7.498599068645659</v>
@@ -33269,28 +33269,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N30" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O30" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R30" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218916</v>
@@ -33336,7 +33336,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J31" t="n">
         <v>12.90917850146574</v>
@@ -33348,28 +33348,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N31" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O31" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S31" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U31" t="n">
         <v>0.009959505080210177</v>
@@ -33421,13 +33421,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N32" t="n">
         <v>72.63186787517631</v>
@@ -33439,19 +33439,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R32" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S32" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T32" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H33" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I33" t="n">
         <v>7.498599068645659</v>
@@ -33506,28 +33506,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N33" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O33" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P33" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R33" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U33" t="n">
         <v>0.01432853325218916</v>
@@ -33573,7 +33573,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J34" t="n">
         <v>12.90917850146574</v>
@@ -33585,28 +33585,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N34" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O34" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S34" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U34" t="n">
         <v>0.009959505080210177</v>
@@ -33658,13 +33658,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N35" t="n">
         <v>72.63186787517631</v>
@@ -33676,19 +33676,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R35" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S35" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T35" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I36" t="n">
         <v>7.498599068645659</v>
@@ -33743,28 +33743,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N36" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O36" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P36" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R36" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U36" t="n">
         <v>0.01432853325218916</v>
@@ -33810,7 +33810,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J37" t="n">
         <v>12.90917850146574</v>
@@ -33822,28 +33822,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N37" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S37" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U37" t="n">
         <v>0.009959505080210177</v>
@@ -33895,13 +33895,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N38" t="n">
         <v>72.63186787517631</v>
@@ -33913,19 +33913,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R38" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S38" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T38" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I39" t="n">
         <v>7.498599068645659</v>
@@ -33980,28 +33980,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N39" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O39" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P39" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R39" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U39" t="n">
         <v>0.01432853325218916</v>
@@ -34047,7 +34047,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J40" t="n">
         <v>12.90917850146574</v>
@@ -34059,28 +34059,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N40" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S40" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U40" t="n">
         <v>0.009959505080210177</v>
@@ -34132,13 +34132,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N41" t="n">
         <v>72.63186787517631</v>
@@ -34150,19 +34150,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R41" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S41" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T41" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I42" t="n">
         <v>7.498599068645659</v>
@@ -34217,28 +34217,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N42" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O42" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P42" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R42" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U42" t="n">
         <v>0.01432853325218916</v>
@@ -34284,7 +34284,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J43" t="n">
         <v>12.90917850146574</v>
@@ -34296,28 +34296,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N43" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S43" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U43" t="n">
         <v>0.009959505080210177</v>
@@ -34369,13 +34369,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N44" t="n">
         <v>72.63186787517631</v>
@@ -34387,19 +34387,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R44" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S44" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T44" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I45" t="n">
         <v>7.498599068645659</v>
@@ -34454,28 +34454,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N45" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O45" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P45" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R45" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U45" t="n">
         <v>0.01432853325218916</v>
@@ -34521,7 +34521,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J46" t="n">
         <v>12.90917850146574</v>
@@ -34533,28 +34533,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N46" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S46" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U46" t="n">
         <v>0.009959505080210177</v>
@@ -35410,13 +35410,13 @@
         <v>101.5765493865274</v>
       </c>
       <c r="K11" t="n">
-        <v>46.53425861258321</v>
+        <v>171.6451998062821</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5623770505816</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N11" t="n">
         <v>76.14873730630111</v>
@@ -35425,10 +35425,10 @@
         <v>34.62291276103997</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443777</v>
+        <v>144.9997449021175</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766556</v>
+        <v>88.65419834766557</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35501,10 +35501,10 @@
         <v>188.5623770505816</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545072</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7127286595871567</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.629025123080803</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.3171807686846</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>91.07086527080439</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>153.1364108608085</v>
+        <v>112.6475290547382</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.8325570947117</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.8720697162502</v>
       </c>
       <c r="P13" t="n">
-        <v>119.8692800099465</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>51.12528458105024</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865274</v>
+        <v>83.29029764426694</v>
       </c>
       <c r="K14" t="n">
         <v>171.6451998062821</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N14" t="n">
         <v>76.14873730630111</v>
@@ -35665,7 +35665,7 @@
         <v>163.2859966443777</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.36794660540501</v>
+        <v>88.65419834766557</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35735,13 +35735,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N15" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P15" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35781,28 +35781,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.8724683525829</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.14699907384454</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.65350811233026</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.4027671061086</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.629025123080803</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.50659175818963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.10069804708247</v>
       </c>
       <c r="K16" t="n">
         <v>111.3171807686846</v>
@@ -35811,19 +35811,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>95.23165706402928</v>
+        <v>25.62966171077523</v>
       </c>
       <c r="N16" t="n">
-        <v>161.8325570947116</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.8720697162502</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.8692800099465</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>51.12528458105024</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>56.427776873664</v>
       </c>
       <c r="J17" t="n">
-        <v>155.7342491189867</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N17" t="n">
         <v>76.14873730630111</v>
@@ -35902,10 +35902,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>69.73602580872344</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5641537403183</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>69.91525422199729</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35972,13 +35972,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N18" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,19 +36115,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.427776873664</v>
+        <v>56.42777687366394</v>
       </c>
       <c r="J20" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N20" t="n">
         <v>76.14873730630111</v>
@@ -36136,22 +36136,22 @@
         <v>34.62291276103997</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>84.36120347117776</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.73602580872333</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199729</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685094</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077497</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515619</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36209,13 +36209,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N21" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,19 +36352,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.427776873664</v>
+        <v>56.42777687366394</v>
       </c>
       <c r="J23" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K23" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>120.5689576599811</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N23" t="n">
         <v>76.14873730630111</v>
@@ -36373,10 +36373,10 @@
         <v>34.62291276103997</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>73.32316146776571</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.3758252851559</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
@@ -36446,13 +36446,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300049</v>
+        <v>136.7138767300048</v>
       </c>
       <c r="K26" t="n">
         <v>206.7825271497595</v>
@@ -36604,7 +36604,7 @@
         <v>295.2046642671759</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743339</v>
+        <v>289.6157139743338</v>
       </c>
       <c r="O26" t="n">
         <v>248.0898894290727</v>
@@ -36613,10 +36613,10 @@
         <v>198.4233239878552</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7915256911431</v>
+        <v>123.791525691143</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628978</v>
+        <v>18.60653861628974</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>207.0214827210603</v>
       </c>
       <c r="O27" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P27" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,10 +36726,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.85005600306465</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.00979569606039</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>149.8352759780737</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>196.9698844381891</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>35.72524323901003</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7138767300049</v>
+        <v>136.7138767300048</v>
       </c>
       <c r="K29" t="n">
         <v>206.7825271497595</v>
@@ -36841,7 +36841,7 @@
         <v>295.2046642671759</v>
       </c>
       <c r="N29" t="n">
-        <v>289.6157139743339</v>
+        <v>289.6157139743338</v>
       </c>
       <c r="O29" t="n">
         <v>248.0898894290727</v>
@@ -36850,10 +36850,10 @@
         <v>198.4233239878552</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7915256911431</v>
+        <v>123.791525691143</v>
       </c>
       <c r="R29" t="n">
-        <v>18.6065386162898</v>
+        <v>18.60653861628974</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>207.0214827210603</v>
       </c>
       <c r="O30" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P30" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.85005600306459</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36993,22 +36993,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3375692174755</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>51.35755845972322</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.0093970597276</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>20.83567461440686</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300049</v>
+        <v>136.7138767300048</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497604</v>
       </c>
       <c r="L32" t="n">
         <v>260.7127728602488</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671759</v>
+        <v>295.2046642671758</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6157139743339</v>
+        <v>289.6157139743337</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290726</v>
       </c>
       <c r="P32" t="n">
         <v>198.4233239878552</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.7915256911431</v>
+        <v>123.791525691143</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628997</v>
+        <v>18.60653861628971</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>207.0214827210603</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,19 +37236,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>196.9698844381891</v>
+        <v>67.64472763679966</v>
       </c>
       <c r="O34" t="n">
-        <v>35.7252432390096</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.0066073534239</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.0437926869758</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646011</v>
+        <v>31.06286192646012</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4583944746289</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M35" t="n">
-        <v>260.4583944746289</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N35" t="n">
-        <v>100.1217362688102</v>
+        <v>76.14873730630111</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4583944746289</v>
+        <v>162.4606666866974</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.19923879311439</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.5503392747934</v>
       </c>
       <c r="T35" t="n">
         <v>49.59526635964706</v>
@@ -37397,10 +37397,10 @@
         <v>207.0214827210603</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37455,13 +37455,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37537,28 +37537,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646011</v>
+        <v>31.06286192646012</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068295</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N38" t="n">
         <v>76.14873730630111</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276103997</v>
+        <v>162.4606666866972</v>
       </c>
       <c r="P38" t="n">
-        <v>189.5472011835078</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q38" t="n">
         <v>182.3842258679676</v>
@@ -37634,10 +37634,10 @@
         <v>207.0214827210603</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37695,52 +37695,52 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>35.55545571552457</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2437149803694</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7345025175404</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N41" t="n">
         <v>317.1455522246983</v>
       </c>
       <c r="O41" t="n">
-        <v>275.6197276794372</v>
+        <v>89.16286437200583</v>
       </c>
       <c r="P41" t="n">
         <v>225.9531622382197</v>
       </c>
       <c r="Q41" t="n">
-        <v>122.4237660961725</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R41" t="n">
         <v>46.13637686665429</v>
@@ -37871,10 +37871,10 @@
         <v>207.0214827210603</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37914,10 +37914,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>7.324113330230537</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>95.81416466768653</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>75.17375735203161</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>27.96452064588545</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.94311032111289</v>
+        <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
         <v>234.312365400124</v>
       </c>
       <c r="L44" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N44" t="n">
         <v>317.1455522246983</v>
@@ -38032,19 +38032,19 @@
         <v>275.6197276794372</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>39.49629893078821</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3213639415075</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.13637686665429</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.4874773483333</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.53240443318696</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>207.0214827210603</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,19 +38148,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.068345297966479</v>
       </c>
       <c r="C46" t="n">
-        <v>74.53963394642489</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>11.36274357370276</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.0699326999506</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.23590047778941</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
